--- a/4thsciencebingocard.xlsx
+++ b/4thsciencebingocard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Coding\Remote Education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72914E6B-37EB-48E1-91E0-70733E0ACC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD6579-1CF4-47D3-B2AB-590E352B6833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{855DFF1D-1813-4BB9-B347-076067648953}"/>
   </bookViews>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
   <si>
     <t>Bill Nye</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bill Nye</t>
   </si>
   <si>
     <t>Camp Invention</t>
@@ -512,7 +509,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +519,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -541,84 +538,84 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
